--- a/QA/testcases/CPR/Provider/Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Provider/Phar_Patient_App_ViewIncomplete.xlsx
@@ -14,6 +14,7 @@
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401">
   <si>
     <t>Step No</t>
   </si>
@@ -793,6 +794,48 @@
   </si>
   <si>
     <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>MEDICATION_NAME</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>Type Medication name</t>
+  </si>
+  <si>
+    <t>Medication name entered</t>
+  </si>
+  <si>
+    <t>Select Medication name</t>
+  </si>
+  <si>
+    <t>Medication name selected</t>
+  </si>
+  <si>
+    <t>DOSAGE</t>
+  </si>
+  <si>
+    <t>TestDosage</t>
+  </si>
+  <si>
+    <t>Enter Dosage</t>
+  </si>
+  <si>
+    <t>Dosage entered</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Enter frequency</t>
+  </si>
+  <si>
+    <t>Frequency entered</t>
   </si>
   <si>
     <t>SELF_LASTPAGE</t>
@@ -1196,9 +1239,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1227,6 +1270,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1236,7 +1287,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1259,45 +1386,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1311,44 +1400,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1356,21 +1407,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1391,8 +1434,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor theme="4" tint="0.799920651875362"/>
       </patternFill>
     </fill>
     <fill>
@@ -1403,7 +1452,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1421,114 +1542,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1541,7 +1554,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,7 +1578,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,18 +1608,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1626,9 +1681,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399914548173467"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399914548173467"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1648,6 +1729,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1659,6 +1749,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1686,45 +1787,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1742,134 +1808,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1880,6 +1946,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1981,6 +2053,19 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2262,10 +2347,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2950,8 +3035,8 @@
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="9">
-        <v>32</v>
+      <c r="A32" s="7">
+        <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>17</v>
@@ -2972,8 +3057,8 @@
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="7">
-        <v>33</v>
+      <c r="A33" s="9">
+        <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>11</v>
@@ -2992,8 +3077,8 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="9">
-        <v>34</v>
+      <c r="A34" s="7">
+        <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>41</v>
@@ -3016,8 +3101,8 @@
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="7">
-        <v>35</v>
+      <c r="A35" s="9">
+        <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>64</v>
@@ -3038,8 +3123,8 @@
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="9">
-        <v>36</v>
+      <c r="A36" s="7">
+        <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>41</v>
@@ -3062,8 +3147,8 @@
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="7">
-        <v>37</v>
+      <c r="A37" s="9">
+        <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>46</v>
@@ -3086,8 +3171,8 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="9">
-        <v>38</v>
+      <c r="A38" s="7">
+        <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>46</v>
@@ -3110,8 +3195,8 @@
       <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="7">
-        <v>39</v>
+      <c r="A39" s="9">
+        <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>46</v>
@@ -3134,8 +3219,8 @@
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="9">
-        <v>40</v>
+      <c r="A40" s="7">
+        <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>41</v>
@@ -3154,8 +3239,8 @@
       <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="7">
-        <v>41</v>
+      <c r="A41" s="9">
+        <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>46</v>
@@ -3174,8 +3259,8 @@
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="9">
-        <v>42</v>
+      <c r="A42" s="7">
+        <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>113</v>
@@ -3194,8 +3279,8 @@
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="7">
-        <v>43</v>
+      <c r="A43" s="9">
+        <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>17</v>
@@ -3216,8 +3301,8 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="9">
-        <v>44</v>
+      <c r="A44" s="7">
+        <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>11</v>
@@ -3236,8 +3321,8 @@
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="7">
-        <v>45</v>
+      <c r="A45" s="9">
+        <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>17</v>
@@ -3254,8 +3339,8 @@
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="9">
-        <v>46</v>
+      <c r="A46" s="7">
+        <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>64</v>
@@ -3278,8 +3363,8 @@
       <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="7">
-        <v>47</v>
+      <c r="A47" s="9">
+        <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>64</v>
@@ -3302,8 +3387,8 @@
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="9">
-        <v>48</v>
+      <c r="A48" s="7">
+        <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>41</v>
@@ -3326,8 +3411,8 @@
       <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="7">
-        <v>49</v>
+      <c r="A49" s="9">
+        <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>64</v>
@@ -3350,8 +3435,8 @@
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="9">
-        <v>50</v>
+      <c r="A50" s="7">
+        <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>41</v>
@@ -3374,8 +3459,8 @@
       <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="7">
-        <v>51</v>
+      <c r="A51" s="9">
+        <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>46</v>
@@ -3398,8 +3483,8 @@
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="9">
-        <v>52</v>
+      <c r="A52" s="7">
+        <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>46</v>
@@ -3422,8 +3507,8 @@
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="7">
-        <v>53</v>
+      <c r="A53" s="9">
+        <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>46</v>
@@ -3446,8 +3531,8 @@
       <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="9">
-        <v>54</v>
+      <c r="A54" s="7">
+        <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>64</v>
@@ -3470,8 +3555,8 @@
       <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="7">
-        <v>55</v>
+      <c r="A55" s="9">
+        <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>17</v>
@@ -3492,8 +3577,8 @@
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="9">
-        <v>56</v>
+      <c r="A56" s="7">
+        <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>11</v>
@@ -3512,8 +3597,8 @@
       <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="7">
-        <v>57</v>
+      <c r="A57" s="9">
+        <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>17</v>
@@ -3530,8 +3615,8 @@
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="9">
-        <v>58</v>
+      <c r="A58" s="7">
+        <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>11</v>
@@ -3546,8 +3631,8 @@
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="7">
-        <v>59</v>
+      <c r="A59" s="9">
+        <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>17</v>
@@ -3564,8 +3649,8 @@
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="9">
-        <v>60</v>
+      <c r="A60" s="7">
+        <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>11</v>
@@ -3580,8 +3665,8 @@
       <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="7">
-        <v>61</v>
+      <c r="A61" s="9">
+        <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>17</v>
@@ -3602,8 +3687,8 @@
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="9">
-        <v>62</v>
+      <c r="A62" s="7">
+        <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>11</v>
@@ -3618,8 +3703,8 @@
       <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="7">
-        <v>63</v>
+      <c r="A63" s="9">
+        <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>149</v>
@@ -3638,8 +3723,8 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="9">
-        <v>64</v>
+      <c r="A64" s="7">
+        <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>11</v>
@@ -3654,8 +3739,8 @@
       <c r="H64" s="9"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="7">
-        <v>65</v>
+      <c r="A65" s="9">
+        <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>46</v>
@@ -3678,8 +3763,8 @@
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="9">
-        <v>66</v>
+      <c r="A66" s="7">
+        <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>11</v>
@@ -3694,8 +3779,8 @@
       <c r="H66" s="9"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="7">
-        <v>67</v>
+      <c r="A67" s="9">
+        <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>156</v>
@@ -3712,8 +3797,8 @@
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="9">
-        <v>68</v>
+      <c r="A68" s="7">
+        <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>113</v>
@@ -3736,8 +3821,8 @@
       <c r="H68" s="9"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="7">
-        <v>69</v>
+      <c r="A69" s="9">
+        <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>64</v>
@@ -3760,8 +3845,8 @@
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="9">
-        <v>70</v>
+      <c r="A70" s="7">
+        <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>113</v>
@@ -3784,8 +3869,8 @@
       <c r="H70" s="9"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="7">
-        <v>71</v>
+      <c r="A71" s="9">
+        <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>64</v>
@@ -3808,8 +3893,8 @@
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="9">
-        <v>72</v>
+      <c r="A72" s="7">
+        <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>46</v>
@@ -3832,8 +3917,8 @@
       <c r="H72" s="9"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="7">
-        <v>73</v>
+      <c r="A73" s="9">
+        <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>17</v>
@@ -3850,8 +3935,8 @@
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="9">
-        <v>74</v>
+      <c r="A74" s="7">
+        <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>17</v>
@@ -3872,8 +3957,8 @@
       <c r="H74" s="9"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="7">
-        <v>75</v>
+      <c r="A75" s="9">
+        <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>46</v>
@@ -3896,8 +3981,8 @@
       <c r="H75" s="7"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="9">
-        <v>76</v>
+      <c r="A76" s="7">
+        <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>17</v>
@@ -3918,8 +4003,8 @@
       <c r="H76" s="9"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="7">
-        <v>77</v>
+      <c r="A77" s="9">
+        <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>46</v>
@@ -3942,8 +4027,8 @@
       <c r="H77" s="7"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="9">
-        <v>78</v>
+      <c r="A78" s="7">
+        <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>46</v>
@@ -3966,8 +4051,8 @@
       <c r="H78" s="9"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="7">
-        <v>79</v>
+      <c r="A79" s="9">
+        <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>17</v>
@@ -3988,8 +4073,8 @@
       <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="9">
-        <v>80</v>
+      <c r="A80" s="7">
+        <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>17</v>
@@ -4010,8 +4095,8 @@
       <c r="H80" s="9"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="7">
-        <v>81</v>
+      <c r="A81" s="9">
+        <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>17</v>
@@ -4032,8 +4117,8 @@
       <c r="H81" s="7"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="9">
-        <v>82</v>
+      <c r="A82" s="7">
+        <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>17</v>
@@ -4054,8 +4139,8 @@
       <c r="H82" s="9"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="7">
-        <v>83</v>
+      <c r="A83" s="9">
+        <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>17</v>
@@ -4076,8 +4161,8 @@
       <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="9">
-        <v>84</v>
+      <c r="A84" s="7">
+        <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>11</v>
@@ -4096,8 +4181,8 @@
       <c r="H84" s="9"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="7">
-        <v>85</v>
+      <c r="A85" s="9">
+        <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>17</v>
@@ -4114,8 +4199,8 @@
       <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="9">
-        <v>86</v>
+      <c r="A86" s="7">
+        <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>11</v>
@@ -4130,8 +4215,8 @@
       <c r="H86" s="9"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="7">
-        <v>87</v>
+      <c r="A87" s="9">
+        <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>17</v>
@@ -4148,8 +4233,8 @@
       <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="9">
-        <v>88</v>
+      <c r="A88" s="7">
+        <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>11</v>
@@ -4164,8 +4249,8 @@
       <c r="H88" s="9"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="7">
-        <v>89</v>
+      <c r="A89" s="9">
+        <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>17</v>
@@ -4186,8 +4271,8 @@
       <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="9">
-        <v>90</v>
+      <c r="A90" s="7">
+        <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>11</v>
@@ -4202,8 +4287,8 @@
       <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="7">
-        <v>91</v>
+      <c r="A91" s="9">
+        <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>149</v>
@@ -4222,8 +4307,8 @@
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="9">
-        <v>92</v>
+      <c r="A92" s="7">
+        <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>11</v>
@@ -4238,8 +4323,8 @@
       <c r="H92" s="9"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="7">
-        <v>93</v>
+      <c r="A93" s="9">
+        <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>17</v>
@@ -4260,8 +4345,8 @@
       <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="9">
-        <v>94</v>
+      <c r="A94" s="7">
+        <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>11</v>
@@ -4280,8 +4365,8 @@
       <c r="H94" s="9"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="7">
-        <v>95</v>
+      <c r="A95" s="9">
+        <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>17</v>
@@ -4300,8 +4385,8 @@
       <c r="H95" s="7"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="9">
-        <v>96</v>
+      <c r="A96" s="7">
+        <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>11</v>
@@ -4316,8 +4401,8 @@
       <c r="H96" s="9"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="7">
-        <v>97</v>
+      <c r="A97" s="9">
+        <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>17</v>
@@ -4338,8 +4423,8 @@
       <c r="H97" s="7"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="9">
-        <v>98</v>
+      <c r="A98" s="7">
+        <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>11</v>
@@ -4354,8 +4439,8 @@
       <c r="H98" s="9"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="7">
-        <v>99</v>
+      <c r="A99" s="9">
+        <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>41</v>
@@ -4378,8 +4463,8 @@
       <c r="H99" s="7"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="9">
-        <v>100</v>
+      <c r="A100" s="7">
+        <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>64</v>
@@ -4400,8 +4485,8 @@
       <c r="H100" s="9"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="7">
-        <v>101</v>
+      <c r="A101" s="9">
+        <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>64</v>
@@ -4422,8 +4507,8 @@
       <c r="H101" s="7"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="9">
-        <v>102</v>
+      <c r="A102" s="7">
+        <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>17</v>
@@ -4444,8 +4529,8 @@
       <c r="H102" s="9"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="7">
-        <v>103</v>
+      <c r="A103" s="9">
+        <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>11</v>
@@ -4464,8 +4549,8 @@
       <c r="H103" s="7"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="9">
-        <v>104</v>
+      <c r="A104" s="7">
+        <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>17</v>
@@ -4482,8 +4567,8 @@
       <c r="H104" s="9"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="7">
-        <v>105</v>
+      <c r="A105" s="9">
+        <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>11</v>
@@ -4498,8 +4583,8 @@
       <c r="H105" s="7"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="9">
-        <v>106</v>
+      <c r="A106" s="7">
+        <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>64</v>
@@ -4520,8 +4605,8 @@
       <c r="H106" s="9"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="7">
-        <v>107</v>
+      <c r="A107" s="9">
+        <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>64</v>
@@ -4542,8 +4627,8 @@
       <c r="H107" s="7"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="9">
-        <v>108</v>
+      <c r="A108" s="7">
+        <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>217</v>
@@ -4564,8 +4649,8 @@
       <c r="H108" s="9"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="7">
-        <v>109</v>
+      <c r="A109" s="9">
+        <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>64</v>
@@ -4586,8 +4671,8 @@
       <c r="H109" s="7"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="9">
-        <v>110</v>
+      <c r="A110" s="7">
+        <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>217</v>
@@ -4608,8 +4693,8 @@
       <c r="H110" s="9"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="7">
-        <v>111</v>
+      <c r="A111" s="9">
+        <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>17</v>
@@ -4630,8 +4715,8 @@
       <c r="H111" s="7"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="9">
-        <v>112</v>
+      <c r="A112" s="7">
+        <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>17</v>
@@ -4652,8 +4737,8 @@
       <c r="H112" s="9"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="7">
-        <v>113</v>
+      <c r="A113" s="9">
+        <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>17</v>
@@ -4674,8 +4759,8 @@
       <c r="H113" s="7"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="9">
-        <v>114</v>
+      <c r="A114" s="7">
+        <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>113</v>
@@ -4698,8 +4783,8 @@
       <c r="H114" s="9"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="7">
-        <v>115</v>
+      <c r="A115" s="9">
+        <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>64</v>
@@ -4722,8 +4807,8 @@
       <c r="H115" s="7"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="9">
-        <v>116</v>
+      <c r="A116" s="7">
+        <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>64</v>
@@ -4740,8 +4825,8 @@
       <c r="H116" s="9"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="7">
-        <v>117</v>
+      <c r="A117" s="9">
+        <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>113</v>
@@ -4760,8 +4845,8 @@
       <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="9">
-        <v>118</v>
+      <c r="A118" s="7">
+        <v>117</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>46</v>
@@ -4780,8 +4865,8 @@
       <c r="H118" s="9"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="7">
-        <v>119</v>
+      <c r="A119" s="9">
+        <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>46</v>
@@ -4800,8 +4885,8 @@
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="9">
-        <v>120</v>
+      <c r="A120" s="7">
+        <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>46</v>
@@ -4820,8 +4905,8 @@
       <c r="H120" s="9"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="7">
-        <v>121</v>
+      <c r="A121" s="9">
+        <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>46</v>
@@ -4840,8 +4925,8 @@
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="9">
-        <v>122</v>
+      <c r="A122" s="7">
+        <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>46</v>
@@ -4860,8 +4945,8 @@
       <c r="H122" s="9"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="7">
-        <v>123</v>
+      <c r="A123" s="9">
+        <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>64</v>
@@ -4880,8 +4965,8 @@
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="9">
-        <v>124</v>
+      <c r="A124" s="7">
+        <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>64</v>
@@ -4900,8 +4985,8 @@
       <c r="H124" s="9"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="7">
-        <v>125</v>
+      <c r="A125" s="9">
+        <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>64</v>
@@ -4920,8 +5005,8 @@
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="9">
-        <v>126</v>
+      <c r="A126" s="7">
+        <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>17</v>
@@ -4938,8 +5023,8 @@
       <c r="H126" s="9"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="7">
-        <v>127</v>
+      <c r="A127" s="9">
+        <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>11</v>
@@ -4954,8 +5039,8 @@
       <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="9">
-        <v>128</v>
+      <c r="A128" s="7">
+        <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>17</v>
@@ -4972,8 +5057,8 @@
       <c r="H128" s="9"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="7">
-        <v>129</v>
+      <c r="A129" s="9">
+        <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>17</v>
@@ -4994,8 +5079,8 @@
       <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="9">
-        <v>130</v>
+      <c r="A130" s="7">
+        <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>11</v>
@@ -5014,8 +5099,8 @@
       <c r="H130" s="9"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="7">
-        <v>131</v>
+      <c r="A131" s="9">
+        <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>17</v>
@@ -5032,8 +5117,8 @@
       <c r="H131" s="7"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="9">
-        <v>132</v>
+      <c r="A132" s="7">
+        <v>131</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>11</v>
@@ -5048,8 +5133,8 @@
       <c r="H132" s="9"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="7">
-        <v>133</v>
+      <c r="A133" s="9">
+        <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>17</v>
@@ -5066,8 +5151,8 @@
       <c r="H133" s="7"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="9">
-        <v>134</v>
+      <c r="A134" s="7">
+        <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>11</v>
@@ -5082,8 +5167,8 @@
       <c r="H134" s="9"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="7">
-        <v>135</v>
+      <c r="A135" s="9">
+        <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>17</v>
@@ -5104,8 +5189,8 @@
       <c r="H135" s="7"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="9">
-        <v>136</v>
+      <c r="A136" s="7">
+        <v>135</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>11</v>
@@ -5120,8 +5205,8 @@
       <c r="H136" s="9"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="7">
-        <v>137</v>
+      <c r="A137" s="9">
+        <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>149</v>
@@ -5140,8 +5225,8 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="9">
-        <v>138</v>
+      <c r="A138" s="7">
+        <v>137</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>11</v>
@@ -5156,8 +5241,8 @@
       <c r="H138" s="9"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="7">
-        <v>139</v>
+      <c r="A139" s="9">
+        <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>46</v>
@@ -5180,8 +5265,8 @@
       <c r="H139" s="7"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="9">
-        <v>140</v>
+      <c r="A140" s="7">
+        <v>139</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>11</v>
@@ -5196,8 +5281,8 @@
       <c r="H140" s="9"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="7">
-        <v>141</v>
+      <c r="A141" s="9">
+        <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>156</v>
@@ -5214,8 +5299,8 @@
       <c r="H141" s="7"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="9">
-        <v>142</v>
+      <c r="A142" s="7">
+        <v>141</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>17</v>
@@ -5236,8 +5321,8 @@
       <c r="H142" s="9"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="7">
-        <v>143</v>
+      <c r="A143" s="9">
+        <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>17</v>
@@ -5258,421 +5343,527 @@
       <c r="H143" s="7"/>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="9">
+      <c r="A144" s="7">
+        <v>143</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H144" s="11"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="9">
         <v>144</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B145" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12">
+        <v>5</v>
+      </c>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="14"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="7">
+        <v>145</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="H146" s="15"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="9">
+        <v>146</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G147" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="H147" s="14"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="7">
+        <v>147</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G148" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="H148" s="15"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="9">
+        <v>148</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C149" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D149" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9" t="s">
+      <c r="E149" s="9"/>
+      <c r="F149" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G144" s="9" t="s">
+      <c r="G149" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H144" s="9"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="7">
-        <v>145</v>
-      </c>
-      <c r="B145" s="7" t="s">
+      <c r="H149" s="9"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="7">
+        <v>149</v>
+      </c>
+      <c r="B150" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7">
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7">
         <v>10</v>
       </c>
-      <c r="F145" s="7" t="s">
+      <c r="F150" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G145" s="7" t="s">
+      <c r="G150" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H145" s="7"/>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="9">
-        <v>146</v>
-      </c>
-      <c r="B146" s="9" t="s">
+      <c r="H150" s="7"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="9">
+        <v>150</v>
+      </c>
+      <c r="B151" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C146" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="G146" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="H146" s="9"/>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="7">
-        <v>147</v>
-      </c>
-      <c r="B147" s="7" t="s">
+      <c r="C151" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H151" s="9"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="7">
+        <v>151</v>
+      </c>
+      <c r="B152" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7">
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7">
         <v>1</v>
       </c>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="9">
-        <v>148</v>
-      </c>
-      <c r="B148" s="9" t="s">
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="9">
+        <v>152</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C148" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="7">
-        <v>149</v>
-      </c>
-      <c r="B149" s="7" t="s">
+      <c r="C153" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="7">
+        <v>153</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7">
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7">
         <v>1</v>
       </c>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="9">
-        <v>150</v>
-      </c>
-      <c r="B150" s="9" t="s">
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="9">
+        <v>154</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C150" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="H150" s="9"/>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="7">
-        <v>151</v>
-      </c>
-      <c r="B151" s="7" t="s">
+      <c r="C155" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="H155" s="9"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="7">
+        <v>155</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7">
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7">
         <v>3</v>
       </c>
-      <c r="F151" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H151" s="7"/>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="9">
-        <v>152</v>
-      </c>
-      <c r="B152" s="9" t="s">
+      <c r="F156" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H156" s="7"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="9">
+        <v>156</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C152" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="H152" s="9"/>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="7">
-        <v>153</v>
-      </c>
-      <c r="B153" s="7" t="s">
+      <c r="C157" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="H157" s="9"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="7">
+        <v>157</v>
+      </c>
+      <c r="B158" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C153" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H153" s="7"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="9">
-        <v>154</v>
-      </c>
-      <c r="B154" s="9" t="s">
+      <c r="C158" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H158" s="7"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="9">
+        <v>158</v>
+      </c>
+      <c r="B159" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9">
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9">
         <v>2</v>
       </c>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="7">
-        <v>155</v>
-      </c>
-      <c r="B155" s="7" t="s">
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="7">
+        <v>159</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C160" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D155" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H155" s="7"/>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="9">
-        <v>156</v>
-      </c>
-      <c r="B156" s="9" t="s">
+      <c r="D160" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="9">
+        <v>160</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C161" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D156" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E156" s="9" t="s">
+      <c r="D161" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E161" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F156" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="G156" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="H156" s="9"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="7">
-        <v>157</v>
-      </c>
-      <c r="B157" s="7" t="s">
+      <c r="F161" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H161" s="9"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="7">
+        <v>161</v>
+      </c>
+      <c r="B162" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C162" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D162" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E157" s="7">
+      <c r="E162" s="7">
         <v>9889656446</v>
       </c>
-      <c r="F157" s="7" t="s">
+      <c r="F162" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G157" s="7" t="s">
+      <c r="G162" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H157" s="7"/>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="9">
-        <v>158</v>
-      </c>
-      <c r="B158" s="9" t="s">
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="9">
+        <v>162</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C163" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D158" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E158" s="9"/>
-      <c r="F158" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="G158" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="H158" s="9"/>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="7">
-        <v>159</v>
-      </c>
-      <c r="B159" s="7" t="s">
+      <c r="D163" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="H163" s="9"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="7">
+        <v>163</v>
+      </c>
+      <c r="B164" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7">
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7">
         <v>4</v>
       </c>
-      <c r="F159" s="7" t="s">
+      <c r="F164" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G159" s="7" t="s">
+      <c r="G164" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H159" s="7"/>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="9">
-        <v>160</v>
-      </c>
-      <c r="B160" s="9" t="s">
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="9">
+        <v>164</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C160" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H160" s="9"/>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="7">
-        <v>161</v>
-      </c>
-      <c r="B161" s="7" t="s">
+      <c r="C165" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="H165" s="9"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="7">
+        <v>165</v>
+      </c>
+      <c r="B166" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7">
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7">
         <v>8</v>
       </c>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="9">
-        <v>162</v>
-      </c>
-      <c r="B162" s="9" t="s">
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="9">
+        <v>166</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C162" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E162" s="9"/>
-      <c r="F162" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G162" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="H162" s="9"/>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="7">
-        <v>163</v>
-      </c>
-      <c r="B163" s="4" t="s">
+      <c r="C167" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H167" s="9"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="7">
+        <v>167</v>
+      </c>
+      <c r="B168" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E168" s="4">
         <v>5</v>
       </c>
-      <c r="F163" s="4" t="s">
+      <c r="F168" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G163" s="4" t="s">
+      <c r="G168" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B70 B91 B115 B137 B3:B12 B13:B31 B32:B35 B36:B69 B71:B90 B92:B114 B116:B136 B138:B143 B144:B150 B151:B1048576">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B70 B91 B115 B137 B3:B12 B13:B31 B32:B35 B36:B69 B71:B90 B92:B114 B116:B136 B138:B143 B149:B155 B156:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C91 C92 C106 C115 C137 C138 C1:C3 C7:C9 C13:C31 C32:C35 C36:C56 C57:C60 C61:C64 C85:C88 C89:C90 C93:C94 C104:C105 C107:C110 C111:C114 C116:C121 C122:C127 C131:C134 C135:C136 C163:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C91 C92 C106 C115 C137 C138 C1:C3 C7:C9 C13:C31 C32:C35 C36:C56 C57:C60 C61:C64 C85:C88 C89:C90 C93:C94 C104:C105 C107:C110 C111:C114 C116:C121 C122:C127 C131:C134 C135:C136 C168:C1048576">
       <formula1>DataList!$A$2:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C83">
@@ -5683,6 +5874,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65:C67">
       <formula1>DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B144:C148">
+      <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5712,7 +5906,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5720,20 +5914,20 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5744,20 +5938,20 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -5765,47 +5959,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C10" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5815,12 +6009,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5830,45 +6024,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5878,7 +6072,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5888,152 +6082,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -6043,209 +6237,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -6260,7 +6454,7 @@
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="3:3">

--- a/QA/testcases/CPR/Provider/Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Provider/Phar_Patient_App_ViewIncomplete.xlsx
@@ -1239,10 +1239,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1269,33 +1269,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1309,24 +1307,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1347,7 +1330,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1356,7 +1339,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,22 +1360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -1392,8 +1367,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1406,8 +1405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1446,7 +1446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,13 +1464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,19 +1482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,13 +1506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,7 +1524,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,91 +1620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,11 +1690,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1709,21 +1759,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1752,51 +1787,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1808,130 +1808,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2349,8 +2349,8 @@
   <sheetPr/>
   <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A168"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2480,7 +2480,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2622,7 +2622,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>38</v>
@@ -2664,7 +2664,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>38</v>

--- a/QA/testcases/CPR/Provider/Phar_Patient_App_ViewIncomplete.xlsx
+++ b/QA/testcases/CPR/Provider/Phar_Patient_App_ViewIncomplete.xlsx
@@ -1269,54 +1269,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1330,10 +1292,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1353,8 +1323,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1367,47 +1405,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1446,7 +1446,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,7 +1590,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,163 +1620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1705,21 +1705,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1740,11 +1725,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1763,34 +1787,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1808,130 +1808,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2350,7 +2350,7 @@
   <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2480,7 +2480,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
